--- a/array.xlsx
+++ b/array.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Engineering\Eli Saunders\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Engineering\Eli Saunders\Python\DocumentPrep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C03ACAE-3A46-48AA-BD16-7911607898EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD491B5-0F1E-48C1-A42B-0348F1E579BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10152" yWindow="5484" windowWidth="34560" windowHeight="18744" activeTab="1" xr2:uid="{91B6E9EF-0D85-492F-882E-194FA1DAD8BD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{91B6E9EF-0D85-492F-882E-194FA1DAD8BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1557,50 +1557,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB417BF-A76F-432F-B88F-F2A60BFBF055}">
   <dimension ref="A1:AO192"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.88671875" style="23" customWidth="1"/>
-    <col min="33" max="33" width="26.44140625" style="4" customWidth="1"/>
-    <col min="34" max="35" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="65.33203125" style="10" customWidth="1"/>
-    <col min="39" max="39" width="12.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="23.88671875" style="4"/>
+    <col min="1" max="1" width="24.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="21" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.85546875" style="23" customWidth="1"/>
+    <col min="33" max="33" width="26.42578125" style="4" customWidth="1"/>
+    <col min="34" max="35" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="65.28515625" style="10" customWidth="1"/>
+    <col min="39" max="39" width="12.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="23.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>202</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:41" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>59</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:41" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>60</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:41" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>61</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:41" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>62</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>63</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>64</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>65</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>66</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>67</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>68</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>69</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>70</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>71</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>72</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>73</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>74</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>75</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>76</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>77</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>78</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>79</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>51</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>52</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>80</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>81</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>82</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>83</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>84</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>85</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>86</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>87</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>88</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>89</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>90</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>91</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>92</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>93</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>94</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>95</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>96</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>97</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>98</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>99</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>100</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>101</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>102</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>103</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>53</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>104</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>105</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>106</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>107</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>108</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>109</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>136</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
@@ -6519,7 +6519,7 @@
       <c r="AJ58" s="18"/>
       <c r="AN58" s="6"/>
     </row>
-    <row r="59" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
@@ -6542,7 +6542,7 @@
       <c r="AJ59" s="18"/>
       <c r="AN59" s="6"/>
     </row>
-    <row r="60" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
@@ -6565,7 +6565,7 @@
       <c r="AJ60" s="18"/>
       <c r="AN60" s="6"/>
     </row>
-    <row r="61" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
@@ -6588,7 +6588,7 @@
       <c r="AJ61" s="18"/>
       <c r="AN61" s="6"/>
     </row>
-    <row r="62" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
@@ -6611,7 +6611,7 @@
       <c r="AJ62" s="18"/>
       <c r="AN62" s="6"/>
     </row>
-    <row r="63" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
@@ -6634,7 +6634,7 @@
       <c r="AJ63" s="18"/>
       <c r="AN63" s="6"/>
     </row>
-    <row r="64" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
@@ -6657,7 +6657,7 @@
       <c r="AJ64" s="18"/>
       <c r="AN64" s="6"/>
     </row>
-    <row r="65" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
@@ -6680,7 +6680,7 @@
       <c r="AJ65" s="18"/>
       <c r="AN65" s="6"/>
     </row>
-    <row r="66" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
@@ -6703,7 +6703,7 @@
       <c r="AJ66" s="18"/>
       <c r="AN66" s="6"/>
     </row>
-    <row r="67" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
@@ -6726,7 +6726,7 @@
       <c r="AJ67" s="18"/>
       <c r="AN67" s="6"/>
     </row>
-    <row r="68" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
@@ -6749,7 +6749,7 @@
       <c r="AJ68" s="18"/>
       <c r="AN68" s="6"/>
     </row>
-    <row r="69" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
@@ -6772,7 +6772,7 @@
       <c r="AJ69" s="18"/>
       <c r="AN69" s="6"/>
     </row>
-    <row r="70" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
@@ -6795,7 +6795,7 @@
       <c r="AJ70" s="18"/>
       <c r="AN70" s="6"/>
     </row>
-    <row r="71" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
@@ -6818,7 +6818,7 @@
       <c r="AJ71" s="18"/>
       <c r="AN71" s="6"/>
     </row>
-    <row r="72" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
@@ -6841,7 +6841,7 @@
       <c r="AJ72" s="18"/>
       <c r="AN72" s="6"/>
     </row>
-    <row r="73" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
@@ -6864,7 +6864,7 @@
       <c r="AJ73" s="18"/>
       <c r="AN73" s="6"/>
     </row>
-    <row r="74" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
@@ -6887,7 +6887,7 @@
       <c r="AJ74" s="18"/>
       <c r="AN74" s="6"/>
     </row>
-    <row r="75" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
@@ -6910,7 +6910,7 @@
       <c r="AJ75" s="18"/>
       <c r="AN75" s="6"/>
     </row>
-    <row r="76" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
@@ -6933,7 +6933,7 @@
       <c r="AJ76" s="18"/>
       <c r="AN76" s="6"/>
     </row>
-    <row r="77" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
@@ -6956,7 +6956,7 @@
       <c r="AJ77" s="18"/>
       <c r="AN77" s="6"/>
     </row>
-    <row r="78" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
@@ -6979,7 +6979,7 @@
       <c r="AJ78" s="18"/>
       <c r="AN78" s="6"/>
     </row>
-    <row r="79" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
@@ -7002,7 +7002,7 @@
       <c r="AJ79" s="18"/>
       <c r="AN79" s="6"/>
     </row>
-    <row r="80" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
@@ -7025,7 +7025,7 @@
       <c r="AJ80" s="18"/>
       <c r="AN80" s="6"/>
     </row>
-    <row r="81" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
@@ -7048,7 +7048,7 @@
       <c r="AJ81" s="18"/>
       <c r="AN81" s="6"/>
     </row>
-    <row r="82" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
@@ -7071,7 +7071,7 @@
       <c r="AJ82" s="18"/>
       <c r="AN82" s="6"/>
     </row>
-    <row r="83" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
@@ -7094,7 +7094,7 @@
       <c r="AJ83" s="18"/>
       <c r="AN83" s="6"/>
     </row>
-    <row r="84" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
@@ -7117,7 +7117,7 @@
       <c r="AJ84" s="18"/>
       <c r="AN84" s="6"/>
     </row>
-    <row r="85" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
@@ -7140,7 +7140,7 @@
       <c r="AJ85" s="18"/>
       <c r="AN85" s="6"/>
     </row>
-    <row r="86" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
@@ -7163,7 +7163,7 @@
       <c r="AJ86" s="18"/>
       <c r="AN86" s="6"/>
     </row>
-    <row r="87" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
@@ -7186,7 +7186,7 @@
       <c r="AJ87" s="18"/>
       <c r="AN87" s="6"/>
     </row>
-    <row r="88" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
@@ -7209,7 +7209,7 @@
       <c r="AJ88" s="18"/>
       <c r="AN88" s="6"/>
     </row>
-    <row r="89" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
@@ -7232,7 +7232,7 @@
       <c r="AJ89" s="18"/>
       <c r="AN89" s="6"/>
     </row>
-    <row r="90" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
@@ -7255,7 +7255,7 @@
       <c r="AJ90" s="18"/>
       <c r="AN90" s="6"/>
     </row>
-    <row r="91" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
@@ -7278,7 +7278,7 @@
       <c r="AJ91" s="18"/>
       <c r="AN91" s="6"/>
     </row>
-    <row r="92" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
@@ -7301,7 +7301,7 @@
       <c r="AJ92" s="18"/>
       <c r="AN92" s="6"/>
     </row>
-    <row r="93" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
@@ -7324,7 +7324,7 @@
       <c r="AJ93" s="18"/>
       <c r="AN93" s="6"/>
     </row>
-    <row r="94" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
@@ -7347,7 +7347,7 @@
       <c r="AJ94" s="18"/>
       <c r="AN94" s="6"/>
     </row>
-    <row r="95" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
@@ -7370,7 +7370,7 @@
       <c r="AJ95" s="18"/>
       <c r="AN95" s="6"/>
     </row>
-    <row r="96" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
@@ -7393,7 +7393,7 @@
       <c r="AJ96" s="18"/>
       <c r="AN96" s="6"/>
     </row>
-    <row r="97" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
@@ -7416,7 +7416,7 @@
       <c r="AJ97" s="18"/>
       <c r="AN97" s="6"/>
     </row>
-    <row r="98" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
@@ -7439,7 +7439,7 @@
       <c r="AJ98" s="18"/>
       <c r="AN98" s="6"/>
     </row>
-    <row r="99" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
@@ -7462,7 +7462,7 @@
       <c r="AJ99" s="18"/>
       <c r="AN99" s="6"/>
     </row>
-    <row r="100" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
@@ -7485,7 +7485,7 @@
       <c r="AJ100" s="18"/>
       <c r="AN100" s="6"/>
     </row>
-    <row r="101" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
@@ -7508,7 +7508,7 @@
       <c r="AJ101" s="18"/>
       <c r="AN101" s="6"/>
     </row>
-    <row r="102" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
@@ -7531,7 +7531,7 @@
       <c r="AJ102" s="18"/>
       <c r="AN102" s="6"/>
     </row>
-    <row r="103" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
@@ -7554,7 +7554,7 @@
       <c r="AJ103" s="18"/>
       <c r="AN103" s="6"/>
     </row>
-    <row r="104" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
@@ -7577,7 +7577,7 @@
       <c r="AJ104" s="18"/>
       <c r="AN104" s="6"/>
     </row>
-    <row r="105" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
@@ -7600,7 +7600,7 @@
       <c r="AJ105" s="18"/>
       <c r="AN105" s="6"/>
     </row>
-    <row r="106" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
@@ -7623,7 +7623,7 @@
       <c r="AJ106" s="18"/>
       <c r="AN106" s="6"/>
     </row>
-    <row r="107" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
@@ -7646,7 +7646,7 @@
       <c r="AJ107" s="18"/>
       <c r="AN107" s="6"/>
     </row>
-    <row r="108" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
@@ -7669,7 +7669,7 @@
       <c r="AJ108" s="18"/>
       <c r="AN108" s="6"/>
     </row>
-    <row r="109" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
@@ -7692,7 +7692,7 @@
       <c r="AJ109" s="18"/>
       <c r="AN109" s="6"/>
     </row>
-    <row r="110" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
@@ -7711,7 +7711,7 @@
       <c r="AJ110" s="18"/>
       <c r="AN110" s="6"/>
     </row>
-    <row r="111" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
@@ -7730,7 +7730,7 @@
       <c r="AJ111" s="18"/>
       <c r="AN111" s="6"/>
     </row>
-    <row r="112" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
@@ -7749,7 +7749,7 @@
       <c r="AJ112" s="18"/>
       <c r="AN112" s="6"/>
     </row>
-    <row r="113" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
@@ -7768,7 +7768,7 @@
       <c r="AJ113" s="18"/>
       <c r="AN113" s="6"/>
     </row>
-    <row r="114" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
@@ -7787,7 +7787,7 @@
       <c r="AJ114" s="18"/>
       <c r="AN114" s="6"/>
     </row>
-    <row r="115" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
@@ -7806,7 +7806,7 @@
       <c r="AJ115" s="18"/>
       <c r="AN115" s="6"/>
     </row>
-    <row r="116" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
@@ -7825,7 +7825,7 @@
       <c r="AJ116" s="18"/>
       <c r="AN116" s="6"/>
     </row>
-    <row r="117" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
@@ -7844,7 +7844,7 @@
       <c r="AJ117" s="18"/>
       <c r="AN117" s="6"/>
     </row>
-    <row r="118" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
@@ -7863,7 +7863,7 @@
       <c r="AJ118" s="18"/>
       <c r="AN118" s="6"/>
     </row>
-    <row r="119" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
@@ -7882,7 +7882,7 @@
       <c r="AJ119" s="18"/>
       <c r="AN119" s="6"/>
     </row>
-    <row r="120" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
@@ -7901,7 +7901,7 @@
       <c r="AJ120" s="18"/>
       <c r="AN120" s="6"/>
     </row>
-    <row r="121" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
@@ -7920,7 +7920,7 @@
       <c r="AJ121" s="18"/>
       <c r="AN121" s="6"/>
     </row>
-    <row r="122" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
@@ -7939,7 +7939,7 @@
       <c r="AJ122" s="18"/>
       <c r="AN122" s="6"/>
     </row>
-    <row r="123" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
@@ -7958,7 +7958,7 @@
       <c r="AJ123" s="18"/>
       <c r="AN123" s="6"/>
     </row>
-    <row r="124" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
@@ -7977,7 +7977,7 @@
       <c r="AJ124" s="18"/>
       <c r="AN124" s="6"/>
     </row>
-    <row r="125" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
@@ -7996,7 +7996,7 @@
       <c r="AJ125" s="18"/>
       <c r="AN125" s="6"/>
     </row>
-    <row r="126" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
@@ -8015,7 +8015,7 @@
       <c r="AJ126" s="18"/>
       <c r="AN126" s="6"/>
     </row>
-    <row r="127" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
@@ -8034,7 +8034,7 @@
       <c r="AJ127" s="18"/>
       <c r="AN127" s="6"/>
     </row>
-    <row r="128" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
@@ -8053,7 +8053,7 @@
       <c r="AJ128" s="18"/>
       <c r="AN128" s="6"/>
     </row>
-    <row r="129" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
@@ -8072,7 +8072,7 @@
       <c r="AJ129" s="18"/>
       <c r="AN129" s="6"/>
     </row>
-    <row r="130" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
@@ -8091,7 +8091,7 @@
       <c r="AJ130" s="18"/>
       <c r="AN130" s="6"/>
     </row>
-    <row r="131" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
@@ -8110,7 +8110,7 @@
       <c r="AJ131" s="18"/>
       <c r="AN131" s="6"/>
     </row>
-    <row r="132" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
@@ -8129,7 +8129,7 @@
       <c r="AJ132" s="18"/>
       <c r="AN132" s="6"/>
     </row>
-    <row r="133" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
@@ -8148,7 +8148,7 @@
       <c r="AJ133" s="18"/>
       <c r="AN133" s="6"/>
     </row>
-    <row r="134" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
@@ -8167,7 +8167,7 @@
       <c r="AJ134" s="18"/>
       <c r="AN134" s="6"/>
     </row>
-    <row r="135" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
@@ -8186,7 +8186,7 @@
       <c r="AJ135" s="18"/>
       <c r="AN135" s="6"/>
     </row>
-    <row r="136" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
@@ -8205,7 +8205,7 @@
       <c r="AJ136" s="18"/>
       <c r="AN136" s="6"/>
     </row>
-    <row r="137" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
@@ -8224,7 +8224,7 @@
       <c r="AJ137" s="18"/>
       <c r="AN137" s="6"/>
     </row>
-    <row r="138" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
@@ -8243,7 +8243,7 @@
       <c r="AJ138" s="18"/>
       <c r="AN138" s="6"/>
     </row>
-    <row r="139" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
@@ -8262,7 +8262,7 @@
       <c r="AJ139" s="18"/>
       <c r="AN139" s="6"/>
     </row>
-    <row r="140" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
@@ -8281,7 +8281,7 @@
       <c r="AJ140" s="18"/>
       <c r="AN140" s="6"/>
     </row>
-    <row r="141" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
@@ -8300,7 +8300,7 @@
       <c r="AJ141" s="18"/>
       <c r="AN141" s="6"/>
     </row>
-    <row r="142" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
@@ -8319,7 +8319,7 @@
       <c r="AJ142" s="18"/>
       <c r="AN142" s="6"/>
     </row>
-    <row r="143" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
@@ -8338,7 +8338,7 @@
       <c r="AJ143" s="18"/>
       <c r="AN143" s="6"/>
     </row>
-    <row r="144" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
@@ -8357,7 +8357,7 @@
       <c r="AJ144" s="18"/>
       <c r="AN144" s="6"/>
     </row>
-    <row r="145" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
@@ -8376,7 +8376,7 @@
       <c r="AJ145" s="18"/>
       <c r="AN145" s="6"/>
     </row>
-    <row r="146" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
@@ -8395,7 +8395,7 @@
       <c r="AJ146" s="18"/>
       <c r="AN146" s="6"/>
     </row>
-    <row r="147" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
@@ -8414,7 +8414,7 @@
       <c r="AJ147" s="18"/>
       <c r="AN147" s="6"/>
     </row>
-    <row r="148" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
@@ -8433,7 +8433,7 @@
       <c r="AJ148" s="18"/>
       <c r="AN148" s="6"/>
     </row>
-    <row r="149" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
@@ -8452,7 +8452,7 @@
       <c r="AJ149" s="18"/>
       <c r="AN149" s="6"/>
     </row>
-    <row r="150" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
@@ -8471,7 +8471,7 @@
       <c r="AJ150" s="18"/>
       <c r="AN150" s="6"/>
     </row>
-    <row r="151" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
@@ -8490,7 +8490,7 @@
       <c r="AJ151" s="18"/>
       <c r="AN151" s="6"/>
     </row>
-    <row r="152" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
@@ -8509,7 +8509,7 @@
       <c r="AJ152" s="18"/>
       <c r="AN152" s="6"/>
     </row>
-    <row r="153" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
@@ -8528,7 +8528,7 @@
       <c r="AJ153" s="18"/>
       <c r="AN153" s="6"/>
     </row>
-    <row r="154" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
@@ -8547,7 +8547,7 @@
       <c r="AJ154" s="18"/>
       <c r="AN154" s="6"/>
     </row>
-    <row r="155" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
@@ -8565,7 +8565,7 @@
       <c r="AI155" s="7"/>
       <c r="AJ155" s="18"/>
     </row>
-    <row r="156" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
@@ -8583,7 +8583,7 @@
       <c r="AI156" s="7"/>
       <c r="AJ156" s="18"/>
     </row>
-    <row r="157" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
@@ -8601,7 +8601,7 @@
       <c r="AI157" s="7"/>
       <c r="AJ157" s="18"/>
     </row>
-    <row r="158" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
@@ -8619,7 +8619,7 @@
       <c r="AI158" s="7"/>
       <c r="AJ158" s="18"/>
     </row>
-    <row r="159" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
@@ -8637,7 +8637,7 @@
       <c r="AI159" s="7"/>
       <c r="AJ159" s="18"/>
     </row>
-    <row r="160" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="9:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
@@ -8655,7 +8655,7 @@
       <c r="AI160" s="7"/>
       <c r="AJ160" s="18"/>
     </row>
-    <row r="161" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
@@ -8673,7 +8673,7 @@
       <c r="AI161" s="7"/>
       <c r="AJ161" s="18"/>
     </row>
-    <row r="162" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
@@ -8691,7 +8691,7 @@
       <c r="AI162" s="7"/>
       <c r="AJ162" s="18"/>
     </row>
-    <row r="163" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
@@ -8709,7 +8709,7 @@
       <c r="AI163" s="7"/>
       <c r="AJ163" s="18"/>
     </row>
-    <row r="164" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
@@ -8727,7 +8727,7 @@
       <c r="AI164" s="7"/>
       <c r="AJ164" s="18"/>
     </row>
-    <row r="165" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
@@ -8745,7 +8745,7 @@
       <c r="AI165" s="7"/>
       <c r="AJ165" s="18"/>
     </row>
-    <row r="166" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
@@ -8763,7 +8763,7 @@
       <c r="AI166" s="7"/>
       <c r="AJ166" s="18"/>
     </row>
-    <row r="167" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
@@ -8781,7 +8781,7 @@
       <c r="AI167" s="7"/>
       <c r="AJ167" s="18"/>
     </row>
-    <row r="168" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
@@ -8799,7 +8799,7 @@
       <c r="AI168" s="7"/>
       <c r="AJ168" s="18"/>
     </row>
-    <row r="169" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
       <c r="K169" s="7"/>
@@ -8817,7 +8817,7 @@
       <c r="AI169" s="7"/>
       <c r="AJ169" s="18"/>
     </row>
-    <row r="170" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
@@ -8835,7 +8835,7 @@
       <c r="AI170" s="7"/>
       <c r="AJ170" s="18"/>
     </row>
-    <row r="171" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
       <c r="K171" s="7"/>
@@ -8853,7 +8853,7 @@
       <c r="AI171" s="7"/>
       <c r="AJ171" s="18"/>
     </row>
-    <row r="172" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
@@ -8871,7 +8871,7 @@
       <c r="AI172" s="7"/>
       <c r="AJ172" s="18"/>
     </row>
-    <row r="173" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
       <c r="K173" s="7"/>
@@ -8889,7 +8889,7 @@
       <c r="AI173" s="7"/>
       <c r="AJ173" s="18"/>
     </row>
-    <row r="174" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
@@ -8907,7 +8907,7 @@
       <c r="AI174" s="7"/>
       <c r="AJ174" s="18"/>
     </row>
-    <row r="175" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
@@ -8925,7 +8925,7 @@
       <c r="AI175" s="7"/>
       <c r="AJ175" s="18"/>
     </row>
-    <row r="176" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
       <c r="K176" s="7"/>
@@ -8943,7 +8943,7 @@
       <c r="AI176" s="7"/>
       <c r="AJ176" s="18"/>
     </row>
-    <row r="177" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
       <c r="K177" s="7"/>
@@ -8961,7 +8961,7 @@
       <c r="AI177" s="7"/>
       <c r="AJ177" s="18"/>
     </row>
-    <row r="178" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
       <c r="K178" s="7"/>
@@ -8979,7 +8979,7 @@
       <c r="AI178" s="7"/>
       <c r="AJ178" s="18"/>
     </row>
-    <row r="179" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
       <c r="K179" s="7"/>
@@ -8997,7 +8997,7 @@
       <c r="AI179" s="7"/>
       <c r="AJ179" s="18"/>
     </row>
-    <row r="180" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
       <c r="K180" s="7"/>
@@ -9015,7 +9015,7 @@
       <c r="AI180" s="7"/>
       <c r="AJ180" s="18"/>
     </row>
-    <row r="181" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
       <c r="K181" s="7"/>
@@ -9033,7 +9033,7 @@
       <c r="AI181" s="7"/>
       <c r="AJ181" s="18"/>
     </row>
-    <row r="182" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
       <c r="K182" s="7"/>
@@ -9051,7 +9051,7 @@
       <c r="AI182" s="7"/>
       <c r="AJ182" s="18"/>
     </row>
-    <row r="183" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
       <c r="K183" s="7"/>
@@ -9069,7 +9069,7 @@
       <c r="AI183" s="7"/>
       <c r="AJ183" s="18"/>
     </row>
-    <row r="184" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
       <c r="K184" s="7"/>
@@ -9087,7 +9087,7 @@
       <c r="AI184" s="7"/>
       <c r="AJ184" s="18"/>
     </row>
-    <row r="185" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
       <c r="K185" s="7"/>
@@ -9105,7 +9105,7 @@
       <c r="AI185" s="7"/>
       <c r="AJ185" s="18"/>
     </row>
-    <row r="186" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
       <c r="K186" s="7"/>
@@ -9123,7 +9123,7 @@
       <c r="AI186" s="7"/>
       <c r="AJ186" s="18"/>
     </row>
-    <row r="187" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
       <c r="K187" s="7"/>
@@ -9137,7 +9137,7 @@
       <c r="AI187" s="7"/>
       <c r="AJ187" s="18"/>
     </row>
-    <row r="188" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
       <c r="K188" s="7"/>
@@ -9151,7 +9151,7 @@
       <c r="AI188" s="7"/>
       <c r="AJ188" s="18"/>
     </row>
-    <row r="189" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
       <c r="K189" s="7"/>
@@ -9165,7 +9165,7 @@
       <c r="AI189" s="7"/>
       <c r="AJ189" s="18"/>
     </row>
-    <row r="190" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
       <c r="K190" s="7"/>
@@ -9179,7 +9179,7 @@
       <c r="AI190" s="7"/>
       <c r="AJ190" s="18"/>
     </row>
-    <row r="191" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
@@ -9193,7 +9193,7 @@
       <c r="AI191" s="7"/>
       <c r="AJ191" s="18"/>
     </row>
-    <row r="192" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="9:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
       <c r="K192" s="7"/>
@@ -9225,19 +9225,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3428AEE3-C3E2-486C-A22B-223A08ED8CF6}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="3" width="14.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="42.33203125" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="3" width="14.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>36</v>
       </c>
@@ -9249,7 +9249,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9265,7 +9265,7 @@
       <c r="G2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -9281,7 +9281,7 @@
       <c r="G3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -9297,7 +9297,7 @@
       <c r="G4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -9313,7 +9313,7 @@
       <c r="G5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -9329,7 +9329,7 @@
       <c r="G6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -9345,7 +9345,7 @@
       <c r="G7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -9361,7 +9361,7 @@
       <c r="G8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -9377,7 +9377,7 @@
       <c r="G9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -9393,7 +9393,7 @@
       <c r="G10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -9409,7 +9409,7 @@
       <c r="G11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -9425,7 +9425,7 @@
       <c r="G12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -9441,7 +9441,7 @@
       <c r="G13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -9457,7 +9457,7 @@
       <c r="G14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -9473,7 +9473,7 @@
       <c r="G15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -9489,7 +9489,7 @@
       <c r="G16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -9505,7 +9505,7 @@
       <c r="G17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -9521,7 +9521,7 @@
       <c r="G18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -9537,7 +9537,7 @@
       <c r="G19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -9553,7 +9553,7 @@
       <c r="G20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -9569,7 +9569,7 @@
       <c r="G21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -9585,7 +9585,7 @@
       <c r="G22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -9601,7 +9601,7 @@
       <c r="G23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -9617,7 +9617,7 @@
       <c r="G24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -9633,7 +9633,7 @@
       <c r="G25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -9649,7 +9649,7 @@
       <c r="G26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -9665,7 +9665,7 @@
       <c r="G27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -9681,7 +9681,7 @@
       <c r="G28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -9697,7 +9697,7 @@
       <c r="G29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -9713,7 +9713,7 @@
       <c r="G30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -9729,7 +9729,7 @@
       <c r="G31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -9745,7 +9745,7 @@
       <c r="G32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -9761,7 +9761,7 @@
       <c r="G33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -9777,7 +9777,7 @@
       <c r="G34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -9793,7 +9793,7 @@
       <c r="G35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -9809,7 +9809,7 @@
       <c r="G36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -9825,7 +9825,7 @@
       <c r="G37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>42</v>
       </c>
@@ -9841,7 +9841,7 @@
       <c r="G38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>43</v>
       </c>
@@ -9857,7 +9857,7 @@
       <c r="G39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>44</v>
       </c>
